--- a/setting.xlsx
+++ b/setting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F986B-E8EE-4E3C-ABAD-579192D26A9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B3FC52-9962-411C-A7A8-A9304D5D9A12}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -20,91 +20,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>접수경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>G마켓</t>
+  </si>
+  <si>
+    <t>11번가</t>
+  </si>
+  <si>
+    <t>구글 시트 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 두번째 줄까지 수정 금지!, 그 외에는 자유롭게 수정하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main 시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사은품 정보 시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 정보 시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>옥션</t>
-  </si>
-  <si>
-    <t>G마켓</t>
-  </si>
-  <si>
-    <t>11번가</t>
-  </si>
-  <si>
-    <t>인터파크</t>
-  </si>
-  <si>
-    <t>CJ몰</t>
-  </si>
-  <si>
-    <t>NS몰</t>
-  </si>
-  <si>
-    <t>롯데 닷컴</t>
-  </si>
-  <si>
-    <t>롯데 아이몰</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>구글 시트 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 두번째 줄까지 수정 금지!, 그 외에는 자유롭게 수정하세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심현보1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심현보2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심현보3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main 시트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사은품 정보 시트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 정보 시트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pruda_v3</t>
-  </si>
-  <si>
-    <t>제품군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>렌탈주문서_2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사은품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈앤쇼핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consultant3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main sheet name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model information name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift information name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,49 +477,49 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -550,10 +530,10 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -569,10 +549,10 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -588,9 +568,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -605,9 +583,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -622,9 +598,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -639,9 +613,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -656,9 +628,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -673,9 +643,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -690,9 +658,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
